--- a/Data/EC/NIT-9016878201.xlsx
+++ b/Data/EC/NIT-9016878201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFD95AC-59D1-4582-864D-B0018E806B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B16ADF9-BFB0-4987-9E53-CD972955FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F7C3E5C-509D-4E93-8967-7525D6630A2C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD5087AA-A99F-4655-8A64-4F06E5ADD2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,31 +71,34 @@
     <t>ALDAIR ENRIQUE MARTINEZ ALVARADO</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1128055913</t>
+  </si>
+  <si>
+    <t>MANUEL ANTONIO HERRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1044434481</t>
+  </si>
+  <si>
+    <t>MARLON ISAAC PADILLA ACOSTA</t>
+  </si>
+  <si>
     <t>2505</t>
   </si>
   <si>
-    <t>2504</t>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>2503</t>
-  </si>
-  <si>
-    <t>1128055913</t>
-  </si>
-  <si>
-    <t>MANUEL ANTONIO HERRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1044434481</t>
-  </si>
-  <si>
-    <t>MARLON ISAAC PADILLA ACOSTA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>1148207114</t>
@@ -200,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F131DF-6B05-D36D-77A0-36B5995B59CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D3C0E1-B1E4-D1D3-00DD-8B7C84CCE646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6B1E65-4996-49EF-B0CF-44B98FEFA8A5}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E122E-4E59-42FD-8913-3992F81523D6}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -891,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -968,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>649116</v>
+        <v>706056</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1021,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,7 +1050,7 @@
         <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,19 +1084,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1104,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1127,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1156,10 +1159,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G21" s="18">
         <v>1423500</v>
@@ -1173,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
@@ -1196,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1219,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1242,16 +1245,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G25" s="18">
         <v>1423500</v>
@@ -1265,13 +1268,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
         <v>45552</v>
@@ -1284,42 +1287,54 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="F27" s="18">
+        <v>45552</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="D28" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="24">
         <v>56940</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G28" s="24">
         <v>1423500</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" s="32"/>
       <c r="H33" s="1" t="s">
@@ -1328,12 +1343,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016878201.xlsx
+++ b/Data/EC/NIT-9016878201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B16ADF9-BFB0-4987-9E53-CD972955FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E19D98D3-ADBB-416E-BBB6-B4D58F9DA476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD5087AA-A99F-4655-8A64-4F06E5ADD2DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C6AC7FD-1346-45CE-A4C7-27229FCFF074}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -98,13 +98,7 @@
     <t>2508</t>
   </si>
   <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1148207114</t>
-  </si>
-  <si>
-    <t>YOSELIN HERRERA GENES</t>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,9 +197,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -218,7 +210,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,29 +406,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,19 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D3C0E1-B1E4-D1D3-00DD-8B7C84CCE646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9AB7448-8AA5-98FE-C738-973AC7E9998B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97E122E-4E59-42FD-8913-3992F81523D6}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06378B70-1C7C-4E16-A4E8-25CBC97FF235}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -892,57 +892,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9016878201</v>
       </c>
@@ -971,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>706056</v>
+        <v>569400</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,14 +987,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
         <v>6</v>
@@ -1024,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1043,18 +1043,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>56940</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1423500</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1066,18 +1066,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>56940</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1423500</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1089,18 +1089,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56940</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1112,18 +1112,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56940</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1135,18 +1135,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>56940</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1158,18 +1158,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>56940</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1181,18 +1181,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>56940</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1204,18 +1204,18 @@
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>56940</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1227,139 +1227,70 @@
       <c r="D24" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>56940</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1423500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>45552</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="F25" s="26">
+        <v>56940</v>
+      </c>
+      <c r="G25" s="26">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="18">
-        <v>45552</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="18">
-        <v>45552</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G28" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="H31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H30:J30"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
